--- a/WoniuBoss4.0/GUI自动化测试代码整理/woniubossGUI/testdata/woniuboss4.0_test_cases.xlsx
+++ b/WoniuBoss4.0/GUI自动化测试代码整理/woniubossGUI/testdata/woniuboss4.0_test_cases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="18195" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report_center" sheetId="2" r:id="rId2"/>
+    <sheet name="system_manage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>用例编号</t>
   </si>
@@ -73,6 +74,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>报表中心</t>
     </r>
     <r>
@@ -97,6 +104,32 @@
   <si>
     <t>query_success</t>
   </si>
+  <si>
+    <t>SYSTEM_MANAGE_001</t>
+  </si>
+  <si>
+    <r>
+      <t>用户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工姓名搜索</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -136,8 +169,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,50 +187,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,10 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,36 +224,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -264,24 +313,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +345,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,24 +423,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,43 +435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,12 +489,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,30 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,15 +557,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -554,6 +578,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -565,6 +598,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,205 +651,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,30 +1181,30 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.6" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.9" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.2" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="13.6" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.9" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.2" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1178,16 +1212,16 @@
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1203,41 +1237,90 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="28.375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="28.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/WoniuBoss4.0/GUI自动化测试代码整理/woniubossGUI/testdata/woniuboss4.0_test_cases.xlsx
+++ b/WoniuBoss4.0/GUI自动化测试代码整理/woniubossGUI/testdata/woniuboss4.0_test_cases.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="7605" activeTab="2"/>
+    <workbookView windowWidth="19215" windowHeight="7590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report_center" sheetId="2" r:id="rId2"/>
     <sheet name="system_manage" sheetId="3" r:id="rId3"/>
+    <sheet name="resource" sheetId="4" r:id="rId4"/>
+    <sheet name="market" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>用例编号</t>
   </si>
@@ -109,6 +111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户管理</t>
     </r>
     <r>
@@ -130,6 +138,157 @@
       <t>员工姓名搜索</t>
     </r>
   </si>
+  <si>
+    <t>resource-001</t>
+  </si>
+  <si>
+    <t>增加一条新的信息</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">resphone = 13712312311
+resname = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿汪</t>
+    </r>
+  </si>
+  <si>
+    <t>add success</t>
+  </si>
+  <si>
+    <t>resource-002</t>
+  </si>
+  <si>
+    <t>查询功能</t>
+  </si>
+  <si>
+    <t>resphone = 13712312311</t>
+  </si>
+  <si>
+    <t>query ok</t>
+  </si>
+  <si>
+    <t>resource-003</t>
+  </si>
+  <si>
+    <t>添加跟踪信息</t>
+  </si>
+  <si>
+    <r>
+      <t>resphone=13345678916
+next_time=2020-05-30
+content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现在忙</t>
+    </r>
+  </si>
+  <si>
+    <t>resource-004</t>
+  </si>
+  <si>
+    <t>修改按钮验证</t>
+  </si>
+  <si>
+    <r>
+      <t>resphone=13345678916
+new_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃娃</t>
+    </r>
+  </si>
+  <si>
+    <t>modify success</t>
+  </si>
+  <si>
+    <t>resource-005</t>
+  </si>
+  <si>
+    <t>废弃资源验证</t>
+  </si>
+  <si>
+    <t>discard success</t>
+  </si>
+  <si>
+    <t>resource-006</t>
+  </si>
+  <si>
+    <t>按比例分配资源的验证</t>
+  </si>
+  <si>
+    <t>distribution success</t>
+  </si>
+  <si>
+    <t>resource-007</t>
+  </si>
+  <si>
+    <t>认领资源</t>
+  </si>
+  <si>
+    <t>claim success</t>
+  </si>
+  <si>
+    <t>resource-008</t>
+  </si>
+  <si>
+    <t>转交资源</t>
+  </si>
+  <si>
+    <t>change ok</t>
+  </si>
+  <si>
+    <t>market-001</t>
+  </si>
+  <si>
+    <t>查询信息</t>
+  </si>
+  <si>
+    <t>add-001</t>
+  </si>
+  <si>
+    <t>添加功能查询</t>
+  </si>
+  <si>
+    <r>
+      <t>cusphone=13112391235
+cusname=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小浩浩</t>
+    </r>
+  </si>
+  <si>
+    <t>add-002</t>
+  </si>
+  <si>
+    <t>上传增加</t>
+  </si>
 </sst>
 </file>
 
@@ -163,10 +322,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -191,6 +370,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -201,9 +426,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,105 +449,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -345,25 +504,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,36 +666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,48 +685,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,11 +713,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +763,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,200 +810,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -816,18 +978,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1181,47 +1349,47 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.6" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.9" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.2" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="13.6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.2" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1243,34 +1411,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.375" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="28.375" style="7" customWidth="1"/>
+    <col min="1" max="16384" width="28.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1285,7 +1453,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1299,19 +1467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1319,8 +1487,239 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:4">
+      <c r="B3" s="6"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:5">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
